--- a/excel/外部データソースサンプル.xlsx
+++ b/excel/外部データソースサンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thyt\SELF_S\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72124782-2647-4C68-8870-1D69D571A8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71996F40-FF38-41B5-86AD-B82F4667A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{EE20696A-CF4C-416C-9F55-D4AEAC555790}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EE20696A-CF4C-416C-9F55-D4AEAC555790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAFE994A-6FAE-48F6-A1EB-E247E005B8CE}" name="ピボットテーブル3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAFE994A-6FAE-48F6-A1EB-E247E005B8CE}" name="ピボットテーブル3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -2136,47 +2136,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2242C451-5B0E-41F3-B2F9-FE5F54C717F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="e">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="e">
         <f>1/0</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B2" t="e">
-        <f>A2*1.456</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C2" t="e">
@@ -2184,11 +2183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D2" t="e">
-        <f t="shared" ref="D2:H2" si="0">C2*1.456</f>
+        <f>C2*1.456</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E2" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:I2" si="0">D2*1.456</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F2" t="e">
@@ -2203,18 +2202,21 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="e">
+      <c r="I2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="B3" t="e">
-        <f t="shared" ref="B3:H4" si="1">A3*1.456</f>
-        <v>#N/A</v>
-      </c>
       <c r="C3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B3:I4" si="1">B3*1.456</f>
         <v>#N/A</v>
       </c>
       <c r="D3" t="e">
@@ -2237,729 +2239,740 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>4.3680000000000003</v>
+        <v>1.456</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:H5" si="2">B4*1.456</f>
-        <v>6.3598080000000001</v>
+        <f t="shared" si="1"/>
+        <v>2.119936</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
-        <v>9.2598804480000005</v>
+        <f t="shared" ref="D4:I4" si="2">C4*1.456</f>
+        <v>3.0866268159999999</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>13.482385932288</v>
+        <v>4.4941286440959995</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>19.630353917411327</v>
+        <v>6.5434513058037753</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>28.581795303750891</v>
+        <v>9.5272651012502969</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>41.615093962261298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>13.871697987420433</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>20.197192269684148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:H5" si="3">A5*1.456</f>
+      <c r="C5">
+        <f t="shared" ref="C5:I5" si="3">B5*1.456</f>
         <v>5.8239999999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="3"/>
         <v>8.4797440000000002</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="3"/>
         <v>12.346507264</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="3"/>
         <v>17.976514576383998</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="3"/>
         <v>26.173805223215101</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="3"/>
         <v>38.109060405001188</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="3"/>
         <v>55.486791949681731</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f t="shared" ref="B6:H6" si="4">A6*1.456</f>
+      <c r="C6">
+        <f t="shared" ref="C6:I6" si="4">B6*1.456</f>
         <v>7.2799999999999994</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="4"/>
         <v>10.599679999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="4"/>
         <v>15.433134079999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="4"/>
         <v>22.470643220479996</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="4"/>
         <v>32.717256529018876</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="4"/>
         <v>47.636325506251481</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="4"/>
         <v>69.358489937102149</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f t="shared" ref="B7:H7" si="5">A7*1.456</f>
+      <c r="C7">
+        <f t="shared" ref="C7:I7" si="5">B7*1.456</f>
         <v>8.7360000000000007</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="5"/>
         <v>12.719616</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="5"/>
         <v>18.519760896000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="5"/>
         <v>26.964771864576001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="5"/>
         <v>39.260707834822654</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="5"/>
         <v>57.163590607501781</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="5"/>
         <v>83.230187924522596</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f t="shared" ref="B8:H8" si="6">A8*1.456</f>
+      <c r="C8">
+        <f t="shared" ref="C8:I8" si="6">B8*1.456</f>
         <v>10.192</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="6"/>
         <v>14.839551999999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="6"/>
         <v>21.606387712</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="6"/>
         <v>31.458900508671999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="6"/>
         <v>45.804159140626432</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="6"/>
         <v>66.690855708752082</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="6"/>
         <v>97.101885911943029</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:H9" si="7">A9*1.456</f>
+      <c r="C9">
+        <f t="shared" ref="C9:I9" si="7">B9*1.456</f>
         <v>11.648</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="7"/>
         <v>16.959488</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="7"/>
         <v>24.693014527999999</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="7"/>
         <v>35.953029152767996</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="7"/>
         <v>52.347610446430203</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="7"/>
         <v>76.218120810002375</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="7"/>
         <v>110.97358389936346</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f t="shared" ref="B10:H10" si="8">A10*1.456</f>
+      <c r="C10">
+        <f t="shared" ref="C10:I10" si="8">B10*1.456</f>
         <v>13.103999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="8"/>
         <v>19.079423999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="8"/>
         <v>27.779641343999998</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="8"/>
         <v>40.447157796863998</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="8"/>
         <v>58.891061752233981</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="8"/>
         <v>85.745385911252669</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="8"/>
         <v>124.84528188678388</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f t="shared" ref="B11:H11" si="9">A11*1.456</f>
+      <c r="C11">
+        <f t="shared" ref="C11:I11" si="9">B11*1.456</f>
         <v>14.559999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="9"/>
         <v>21.199359999999999</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="9"/>
         <v>30.866268159999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="9"/>
         <v>44.941286440959992</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="9"/>
         <v>65.434513058037751</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="9"/>
         <v>95.272651012502962</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="9"/>
         <v>138.7169798742043</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f t="shared" ref="B12:H12" si="10">A12*1.456</f>
+      <c r="C12">
+        <f t="shared" ref="C12:I12" si="10">B12*1.456</f>
         <v>16.015999999999998</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="10"/>
         <v>23.319295999999998</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="10"/>
         <v>33.952894975999996</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="10"/>
         <v>49.435415085055993</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="10"/>
         <v>71.977964363841522</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="10"/>
         <v>104.79991611375326</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="10"/>
         <v>152.58867786162475</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f t="shared" ref="B13:H13" si="11">A13*1.456</f>
+      <c r="C13">
+        <f t="shared" ref="C13:I13" si="11">B13*1.456</f>
         <v>17.472000000000001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="11"/>
         <v>25.439232000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="11"/>
         <v>37.039521792000002</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="11"/>
         <v>53.929543729152002</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="11"/>
         <v>78.521415669645307</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="11"/>
         <v>114.32718121500356</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="11"/>
         <v>166.46037584904519</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <f t="shared" ref="B14:H14" si="12">A14*1.456</f>
+      <c r="C14">
+        <f t="shared" ref="C14:I14" si="12">B14*1.456</f>
         <v>18.928000000000001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="12"/>
         <v>27.559168</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="12"/>
         <v>40.126148608000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="12"/>
         <v>58.423672373248003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="12"/>
         <v>85.064866975449092</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="12"/>
         <v>123.85444631625387</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="12"/>
         <v>180.33207383646564</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <f t="shared" ref="B15:H15" si="13">A15*1.456</f>
+      <c r="C15">
+        <f t="shared" ref="C15:I15" si="13">B15*1.456</f>
         <v>20.384</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="13"/>
         <v>29.679103999999999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="13"/>
         <v>43.212775424</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="13"/>
         <v>62.917801017343997</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="13"/>
         <v>91.608318281252863</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="13"/>
         <v>133.38171141750416</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="13"/>
         <v>194.20377182388606</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:H16" si="14">A16*1.456</f>
+      <c r="C16">
+        <f t="shared" ref="C16:I16" si="14">B16*1.456</f>
         <v>21.84</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="14"/>
         <v>31.799039999999998</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="14"/>
         <v>46.299402239999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="14"/>
         <v>67.411929661439999</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="14"/>
         <v>98.151769587056634</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="14"/>
         <v>142.90897651875446</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="14"/>
         <v>208.07546981130648</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:H17" si="15">A17*1.456</f>
+      <c r="C17">
+        <f t="shared" ref="C17:I17" si="15">B17*1.456</f>
         <v>23.295999999999999</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f t="shared" si="15"/>
         <v>33.918976000000001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="15"/>
         <v>49.386029055999998</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="15"/>
         <v>71.906058305535993</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="15"/>
         <v>104.69522089286041</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="15"/>
         <v>152.43624162000475</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="15"/>
         <v>221.94716779872692</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <f t="shared" ref="B18:H18" si="16">A18*1.456</f>
+      <c r="C18">
+        <f t="shared" ref="C18:I18" si="16">B18*1.456</f>
         <v>24.751999999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f t="shared" si="16"/>
         <v>36.038911999999996</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="16"/>
         <v>52.47265587199999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="16"/>
         <v>76.400186949631987</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="16"/>
         <v>111.23867219866418</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="16"/>
         <v>161.96350672125504</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="16"/>
         <v>235.81886578614734</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <f t="shared" ref="B19:H19" si="17">A19*1.456</f>
+      <c r="C19">
+        <f t="shared" ref="C19:I19" si="17">B19*1.456</f>
         <v>26.207999999999998</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f t="shared" si="17"/>
         <v>38.158847999999999</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="17"/>
         <v>55.559282687999996</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="17"/>
         <v>80.894315593727995</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="17"/>
         <v>117.78212350446796</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="17"/>
         <v>171.49077182250534</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="17"/>
         <v>249.69056377356776</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <f t="shared" ref="B20:H20" si="18">A20*1.456</f>
+      <c r="C20">
+        <f t="shared" ref="C20:I20" si="18">B20*1.456</f>
         <v>27.663999999999998</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="18"/>
         <v>40.278783999999995</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="18"/>
         <v>58.645909503999988</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="18"/>
         <v>85.388444237823975</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="18"/>
         <v>124.3255748102717</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="18"/>
         <v>181.0180369237556</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="18"/>
         <v>263.56226176098812</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <f t="shared" ref="B21:H21" si="19">A21*1.456</f>
+      <c r="C21">
+        <f t="shared" ref="C21:I21" si="19">B21*1.456</f>
         <v>29.119999999999997</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f t="shared" si="19"/>
         <v>42.398719999999997</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="19"/>
         <v>61.732536319999994</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="19"/>
         <v>89.882572881919984</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="19"/>
         <v>130.8690261160755</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="19"/>
         <v>190.54530202500592</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="19"/>
         <v>277.4339597484086</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <f t="shared" ref="B22:H22" si="20">A22*1.456</f>
+      <c r="C22">
+        <f t="shared" ref="C22:I22" si="20">B22*1.456</f>
         <v>30.576000000000001</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f t="shared" si="20"/>
         <v>44.518656</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="20"/>
         <v>64.819163136</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="20"/>
         <v>94.376701526015992</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="20"/>
         <v>137.41247742187929</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="20"/>
         <v>200.07256712625625</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="20"/>
         <v>291.30565773582907</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <f t="shared" ref="B23:H23" si="21">A23*1.456</f>
+      <c r="C23">
+        <f t="shared" ref="C23:I23" si="21">B23*1.456</f>
         <v>32.031999999999996</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="21"/>
         <v>46.638591999999996</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="21"/>
         <v>67.905789951999992</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="21"/>
         <v>98.870830170111986</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="21"/>
         <v>143.95592872768304</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="21"/>
         <v>209.59983222750651</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="21"/>
         <v>305.17735572324949</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <f t="shared" ref="B24:H24" si="22">A24*1.456</f>
+      <c r="C24">
+        <f t="shared" ref="C24:I24" si="22">B24*1.456</f>
         <v>33.488</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="22"/>
         <v>48.758527999999998</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="22"/>
         <v>70.992416767999998</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="22"/>
         <v>103.36495881420799</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="22"/>
         <v>150.49938003348683</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="22"/>
         <v>219.1270973287568</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="22"/>
         <v>319.04905371066991</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <f t="shared" ref="B25:H25" si="23">A25*1.456</f>
+      <c r="C25">
+        <f t="shared" ref="C25:I25" si="23">B25*1.456</f>
         <v>34.944000000000003</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f t="shared" si="23"/>
         <v>50.878464000000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="23"/>
         <v>74.079043584000004</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="23"/>
         <v>107.859087458304</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="23"/>
         <v>157.04283133929061</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="23"/>
         <v>228.65436243000713</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="23"/>
         <v>332.92075169809038</v>
       </c>
@@ -4432,8 +4445,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
